--- a/COT data.xlsx
+++ b/COT data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lande\EdgeFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E1169-20D4-4F85-B5E5-87E1F8926863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA89AF6-7CC6-4537-960D-DF7035B35BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{BC550968-2069-4E28-97CC-7C94C19DD578}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{BC550968-2069-4E28-97CC-7C94C19DD578}"/>
   </bookViews>
   <sheets>
     <sheet name="COT Raw Data" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cleaned Data'!$A$1:$H$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COT Raw Data'!$A$1:$J$217</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Economic Raw Data'!$A$1:$I$17</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Economic Raw Data'!$A$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Economic Raw Data'!$A$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Economic Raw Data'!$E$2:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Economic Raw Data'!$A$1:$I$25</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Economic Raw Data'!$A$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Economic Raw Data'!$A$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Economic Raw Data'!$E$2:$E$25</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Economic Raw Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Economic Raw Data'!$F$2:$F$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Economic Raw Data'!$F$2:$F$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Economic Raw Data'!$F$2:$F$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Economic Raw Data'!$F$2:$F$25</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'Economic Raw Data'!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Economic Raw Data'!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Economic Raw Data'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Economic Raw Data'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Economic Raw Data'!$G$2:$G$25</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'Economic Raw Data'!$H$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Economic Raw Data'!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Economic Raw Data'!$H$2:$H$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Economic Raw Data'!$H$2:$H$17</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Economic Raw Data'!$H$2:$H$25</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Economic Raw Data'!$C$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'Economic Raw Data'!$I$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Economic Raw Data'!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Economic Raw Data'!$I$2:$I$17</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Economic Raw Data'!$I$2:$I$17</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Economic Raw Data'!$I$2:$I$25</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'Cleaned Data'!$A$4:$B$217</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">'Cleaned Data'!$C$1</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Cleaned Data'!$C$4:$C$217</definedName>
@@ -45,19 +45,19 @@
     <definedName name="_xlchart.v1.27" hidden="1">'Cleaned Data'!$D$4:$D$217</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">'Cleaned Data'!$E$1</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">'Cleaned Data'!$E$4:$E$217</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Economic Raw Data'!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Economic Raw Data'!$C$2:$C$17</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">'Cleaned Data'!$F$1</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Cleaned Data'!$F$4:$F$217</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'Cleaned Data'!$G$1</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">'Cleaned Data'!$G$4:$G$217</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">'Cleaned Data'!$H$1</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">'Cleaned Data'!$H$4:$H$217</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Economic Raw Data'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Economic Raw Data'!$C$2:$C$25</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Economic Raw Data'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Economic Raw Data'!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Economic Raw Data'!$D$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Economic Raw Data'!$D$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Economic Raw Data'!$D$2:$D$25</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Economic Raw Data'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Economic Raw Data'!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Economic Raw Data'!$E$2:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="64">
   <si>
     <t>Market_and_Exchange_Names</t>
   </si>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,10 +420,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6525,7 +6521,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="7781924" y="133350"/>
-              <a:ext cx="4040187" cy="2743200"/>
+              <a:ext cx="4040187" cy="1682750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6607,7 +6603,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7760890" y="381801"/>
+              <a:off x="7760890" y="546901"/>
               <a:ext cx="4560887" cy="2717800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -14155,10 +14151,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -14263,31 +14259,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C4">
-        <v>2241</v>
+        <v>1752</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="F4">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H4">
-        <v>-2.1</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>110.8</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
@@ -14295,7 +14291,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1">
-        <v>45846</v>
+        <v>45842</v>
       </c>
       <c r="C5">
         <v>2241</v>
@@ -14310,7 +14306,7 @@
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>-2.1</v>
@@ -14321,359 +14317,591 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="C6">
-        <v>16406</v>
+        <v>2241</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G6">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="H6">
-        <v>-3.1</v>
+        <v>-2.1</v>
       </c>
       <c r="I6">
-        <v>87.4</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="C7">
-        <v>16406</v>
+        <v>2241</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G7">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="H7">
-        <v>-3.1</v>
+        <v>-2.1</v>
       </c>
       <c r="I7">
-        <v>87.4</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>45842</v>
       </c>
       <c r="C8">
-        <v>4026</v>
+        <v>16406</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>2.15</v>
       </c>
       <c r="F8">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H8">
-        <v>-5.5</v>
+        <v>-3.1</v>
       </c>
       <c r="I8">
-        <v>236.7</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>45846</v>
       </c>
       <c r="C9">
-        <v>4026</v>
+        <v>16406</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>2.15</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H9">
-        <v>-5.5</v>
+        <v>-3.1</v>
       </c>
       <c r="I9">
-        <v>236.7</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C10">
-        <v>260</v>
+        <v>16406</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5.0999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="H10">
         <v>-3.1</v>
       </c>
       <c r="I10">
-        <v>45.2</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>45846</v>
+        <v>45842</v>
       </c>
       <c r="C11">
-        <v>260</v>
+        <v>4026</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
+        <v>3.5</v>
+      </c>
+      <c r="G11">
         <v>2.5</v>
       </c>
-      <c r="G11">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="H11">
-        <v>-3.1</v>
+        <v>-5.5</v>
       </c>
       <c r="I11">
-        <v>45.2</v>
+        <v>236.7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="C12">
-        <v>937</v>
+        <v>4026</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="G12">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>-5.5</v>
       </c>
       <c r="I12">
-        <v>37.9</v>
+        <v>236.7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="C13">
-        <v>937</v>
+        <v>4026</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.5</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>-5.5</v>
       </c>
       <c r="I13">
-        <v>37.9</v>
+        <v>236.7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>45842</v>
       </c>
       <c r="C14">
-        <v>3644</v>
+        <v>260</v>
       </c>
       <c r="D14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E14">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="F14">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G14">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H14">
-        <v>-4.8</v>
+        <v>-3.1</v>
       </c>
       <c r="I14">
-        <v>95.9</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>45846</v>
       </c>
       <c r="C15">
-        <v>3644</v>
+        <v>260</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="F15">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G15">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H15">
-        <v>-4.8</v>
+        <v>-3.1</v>
       </c>
       <c r="I15">
-        <v>95.9</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C16">
-        <v>29185</v>
+        <v>260</v>
       </c>
       <c r="D16">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E16">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="F16">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G16">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H16">
-        <v>-6.2</v>
+        <v>-3.1</v>
       </c>
       <c r="I16">
-        <v>124.3</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C17">
+        <v>937</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>2.8</v>
+      </c>
+      <c r="H17">
+        <v>0.4</v>
+      </c>
+      <c r="I17">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C18">
+        <v>937</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>2.7</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C19">
+        <v>937</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>2.7</v>
+      </c>
+      <c r="H19">
+        <v>0.4</v>
+      </c>
+      <c r="I19">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C20">
+        <v>3644</v>
+      </c>
+      <c r="D20">
+        <v>0.7</v>
+      </c>
+      <c r="E20">
+        <v>4.25</v>
+      </c>
+      <c r="F20">
+        <v>3.4</v>
+      </c>
+      <c r="G20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H20">
+        <v>-4.8</v>
+      </c>
+      <c r="I20">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C21">
+        <v>3644</v>
+      </c>
+      <c r="D21">
+        <v>0.7</v>
+      </c>
+      <c r="E21">
+        <v>4.25</v>
+      </c>
+      <c r="F21">
+        <v>3.4</v>
+      </c>
+      <c r="G21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H21">
+        <v>-4.8</v>
+      </c>
+      <c r="I21">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C22">
+        <v>3644</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>4.25</v>
+      </c>
+      <c r="F22">
+        <v>3.4</v>
+      </c>
+      <c r="G22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H22">
+        <v>-4.8</v>
+      </c>
+      <c r="I22">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B23" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C23">
+        <v>29185</v>
+      </c>
+      <c r="D23">
+        <v>-0.5</v>
+      </c>
+      <c r="E23">
+        <v>4.5</v>
+      </c>
+      <c r="F23">
+        <v>2.4</v>
+      </c>
+      <c r="G23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H23">
+        <v>-6.2</v>
+      </c>
+      <c r="I23">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
         <v>45846</v>
       </c>
-      <c r="C17">
+      <c r="C24">
         <v>29185</v>
       </c>
-      <c r="D17">
+      <c r="D24">
         <v>-0.5</v>
       </c>
-      <c r="E17">
+      <c r="E24">
         <v>4.5</v>
       </c>
-      <c r="F17">
+      <c r="F24">
         <v>2.4</v>
       </c>
-      <c r="G17">
+      <c r="G24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H17">
+      <c r="H24">
         <v>-6.2</v>
       </c>
-      <c r="I17">
+      <c r="I24">
         <v>124.3</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C25">
+        <v>29185</v>
+      </c>
+      <c r="D25">
+        <v>-0.5</v>
+      </c>
+      <c r="E25">
+        <v>4.5</v>
+      </c>
+      <c r="F25">
+        <v>2.7</v>
+      </c>
+      <c r="G25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H25">
+        <v>-6.2</v>
+      </c>
+      <c r="I25">
+        <v>124.3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I17" xr:uid="{527DDC3E-7A59-48BE-A56D-E4E7286554CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
-      <sortCondition ref="A1:A4"/>
+  <autoFilter ref="A1:I25" xr:uid="{527DDC3E-7A59-48BE-A56D-E4E7286554CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
+      <sortCondition ref="A1:A17"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C11">
+  <conditionalFormatting sqref="C2:C25">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -14683,7 +14911,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D25">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -14693,7 +14931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -14703,7 +14941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F25">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -14713,7 +14951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G25">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -14723,7 +14961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
+  <conditionalFormatting sqref="H2:H25">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -14733,23 +14971,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
+  <conditionalFormatting sqref="I2:I25">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -14766,7 +14994,7 @@
   </sheetPr>
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H228" sqref="H228"/>
     </sheetView>
@@ -17240,10 +17468,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="1">
         <v>45846</v>
       </c>
       <c r="C83" s="6">
@@ -18050,10 +18278,10 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="24">
+      <c r="B110" s="1">
         <v>45846</v>
       </c>
       <c r="C110" s="6">
@@ -18860,10 +19088,10 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B137" s="1">
         <v>45846</v>
       </c>
       <c r="C137" s="6">
@@ -19670,10 +19898,10 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A164" s="23" t="s">
+      <c r="A164" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B164" s="24">
+      <c r="B164" s="1">
         <v>45846</v>
       </c>
       <c r="C164" s="6">
@@ -20480,10 +20708,10 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A191" s="23" t="s">
+      <c r="A191" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B191" s="24">
+      <c r="B191" s="1">
         <v>45846</v>
       </c>
       <c r="C191" s="6">
@@ -21299,6 +21527,17 @@
     <sortCondition ref="A4:A200"/>
     <sortCondition ref="B4:B200"/>
   </sortState>
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="5Rating">
@@ -21496,6 +21735,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G2">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:G30">
     <cfRule type="iconSet" priority="79">
       <iconSet iconSet="5Rating">
@@ -21677,28 +21927,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G2">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/COT data.xlsx
+++ b/COT data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lande\EdgeFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA89AF6-7CC6-4537-960D-DF7035B35BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F2A880-7CF4-41EB-84F1-E0CBF3DCAC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{BC550968-2069-4E28-97CC-7C94C19DD578}"/>
   </bookViews>
@@ -22,42 +22,34 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cleaned Data'!$A$1:$H$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COT Raw Data'!$A$1:$J$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Economic Raw Data'!$A$1:$I$25</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Economic Raw Data'!$A$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Economic Raw Data'!$A$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Economic Raw Data'!$E$2:$E$25</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Economic Raw Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Economic Raw Data'!$F$2:$F$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Economic Raw Data'!$F$2:$F$25</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Economic Raw Data'!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Economic Raw Data'!$G$2:$G$17</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Economic Raw Data'!$G$2:$G$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Economic Raw Data'!$H$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Economic Raw Data'!$H$2:$H$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Economic Raw Data'!$H$2:$H$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Economic Raw Data'!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Economic Raw Data'!$I$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Economic Raw Data'!$I$2:$I$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Economic Raw Data'!$I$2:$I$25</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Cleaned Data'!$A$4:$B$217</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Cleaned Data'!$C$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Cleaned Data'!$C$4:$C$217</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Cleaned Data'!$D$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Cleaned Data'!$D$4:$D$217</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Cleaned Data'!$E$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Cleaned Data'!$E$4:$E$217</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Economic Raw Data'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Cleaned Data'!$F$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Cleaned Data'!$F$4:$F$217</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Cleaned Data'!$G$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Cleaned Data'!$G$4:$G$217</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Cleaned Data'!$H$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Cleaned Data'!$H$4:$H$217</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Economic Raw Data'!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Economic Raw Data'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Economic Raw Data'!$D$2:$D$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Economic Raw Data'!$D$2:$D$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Economic Raw Data'!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Economic Raw Data'!$E$2:$E$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Economic Raw Data'!$A$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Economic Raw Data'!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Economic Raw Data'!$G$2:$G$25</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Economic Raw Data'!$H$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Economic Raw Data'!$H$2:$H$25</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Economic Raw Data'!$I$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Economic Raw Data'!$I$2:$I$25</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Cleaned Data'!$A$4:$B$217</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Cleaned Data'!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Cleaned Data'!$C$4:$C$217</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Cleaned Data'!$D$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Cleaned Data'!$D$4:$D$217</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Economic Raw Data'!$C$2:$C$25</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Cleaned Data'!$E$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Cleaned Data'!$E$4:$E$217</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Cleaned Data'!$F$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Cleaned Data'!$F$4:$F$217</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Cleaned Data'!$G$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Cleaned Data'!$G$4:$G$217</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Cleaned Data'!$H$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Cleaned Data'!$H$4:$H$217</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Economic Raw Data'!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Economic Raw Data'!$D$2:$D$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Economic Raw Data'!$E$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Economic Raw Data'!$E$2:$E$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Economic Raw Data'!$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Economic Raw Data'!$F$2:$F$25</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Economic Raw Data'!$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -428,12 +420,12 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FFEE0000"/>
+        <color theme="9"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="9"/>
+        <color rgb="FFEE0000"/>
       </font>
     </dxf>
     <dxf>
@@ -4413,58 +4405,58 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="1">
+    <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="2">
+    <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="3">
+    <cx:data id="5">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4502,7 +4494,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{F0664C64-DAE1-449D-B473-EA418888167E}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>GDP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4518,7 +4510,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{756BD995-8A21-409F-9617-6C93E2BD774A}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>GDP Growth</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4534,7 +4526,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{57ADE1FF-C56E-4415-9E44-56FF01358AC5}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Interest Rate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4550,7 +4542,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{7E9D725E-AA81-43E0-A2E0-AD9AFA9838E6}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Inflation Rate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4566,7 +4558,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E20304DD-B623-422F-BB6B-3B676F70C0D6}" formatIdx="8">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>Jobless Rate</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4582,7 +4574,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{40F803E1-0931-4AEE-AFBB-78D542AB9F3A}" formatIdx="10">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>Gov. Budget</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4598,7 +4590,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C2D3E197-CBCB-49F2-95AB-A7FB646538C9}" formatIdx="12">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Debt/GDP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4636,50 +4628,50 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="1">
+    <cx:data id="5">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4717,7 +4709,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{149DA6EC-A0A1-4079-A07A-3804B711487D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v> InstLongs </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4733,7 +4725,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{430673BA-253D-4587-97D2-350228FEAD98}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v> InstShorts </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4749,7 +4741,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{D82F6AE9-7EEC-4C47-A9A5-29A8881C341C}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v> InstNet Position </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4765,7 +4757,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{3AAB1CBF-D34D-417D-821B-477E4FE1C143}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v> RetLongs </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4781,7 +4773,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{47ABA28E-ECF3-4B05-B245-7ACD9772298F}" formatIdx="8">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v> RetShorts </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4797,7 +4789,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{7E5BC200-B4FB-4989-90C9-707099590A38}" formatIdx="10">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v> RetNet Position </cx:v>
             </cx:txData>
           </cx:tx>
@@ -14154,7 +14146,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -14204,7 +14196,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C2">
         <v>1752</v>
@@ -14262,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C4">
         <v>1752</v>
@@ -14291,7 +14283,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C5">
         <v>2241</v>
@@ -14303,10 +14295,10 @@
         <v>2.75</v>
       </c>
       <c r="F5">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="H5">
         <v>-2.1</v>
@@ -14349,7 +14341,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C7">
         <v>2241</v>
@@ -14361,10 +14353,10 @@
         <v>2.75</v>
       </c>
       <c r="F7">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G7">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>-2.1</v>
@@ -14378,7 +14370,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C8">
         <v>16406</v>
@@ -14436,7 +14428,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C10">
         <v>16406</v>
@@ -14465,7 +14457,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C11">
         <v>4026</v>
@@ -14523,7 +14515,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C13">
         <v>4026</v>
@@ -14552,7 +14544,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C14">
         <v>260</v>
@@ -14610,7 +14602,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C16">
         <v>260</v>
@@ -14639,7 +14631,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C17">
         <v>937</v>
@@ -14654,7 +14646,7 @@
         <v>0.1</v>
       </c>
       <c r="G17">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H17">
         <v>0.4</v>
@@ -14697,7 +14689,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C19">
         <v>937</v>
@@ -14712,7 +14704,7 @@
         <v>0.1</v>
       </c>
       <c r="G19">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H19">
         <v>0.4</v>
@@ -14726,7 +14718,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C20">
         <v>3644</v>
@@ -14784,7 +14776,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C22">
         <v>3644</v>
@@ -14813,7 +14805,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1">
-        <v>45842</v>
+        <v>45853</v>
       </c>
       <c r="C23">
         <v>29185</v>
@@ -14825,7 +14817,7 @@
         <v>4.5</v>
       </c>
       <c r="F23">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G23">
         <v>4.0999999999999996</v>
@@ -14871,7 +14863,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>45853</v>
+        <v>45842</v>
       </c>
       <c r="C25">
         <v>29185</v>
@@ -14883,7 +14875,7 @@
         <v>4.5</v>
       </c>
       <c r="F25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G25">
         <v>4.0999999999999996</v>
@@ -14898,7 +14890,8 @@
   </sheetData>
   <autoFilter ref="A1:I25" xr:uid="{527DDC3E-7A59-48BE-A56D-E4E7286554CC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
-      <sortCondition ref="A1:A17"/>
+      <sortCondition ref="A2:A25"/>
+      <sortCondition descending="1" ref="B2:B25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C25">
@@ -14910,8 +14903,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -21846,7 +21837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H217">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
